--- a/content/clusterized.xlsx
+++ b/content/clusterized.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>двух дросселей на наполнителе</t>
+          <t>два дроссель на наполнитель</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>первого ролика на столике</t>
+          <t>первый ролик на столик</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>прижимной резинки на колпаке наполнителя</t>
+          <t>прижимный резинка на колпак наполнитель</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>обоих дросселей</t>
+          <t>оба дроссель</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>двух дросселей №</t>
+          <t>два дроссель №</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>двух дросселей №</t>
+          <t>два дроссель №</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>двух дросселей №</t>
+          <t>два дроссель №</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>прижимной резинки</t>
+          <t>прижимный резинка</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>замена дросселя со2</t>
+          <t>замена дроссель со2</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>замена дросселя с02</t>
+          <t>замена дроссель с02</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>замена дросселя с02</t>
+          <t>замена дроссель с02</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>устранение недолива</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>замена дросселя со2</t>
+          <t>замена дроссель со2</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>сбросных дросселей.</t>
+          <t>сбросный дросселей.</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>замена углекислотного дросселя нагнетаничя.</t>
+          <t>замена углекислотный дроссель нагнетаничя.</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>пустая банка.</t>
+          <t>пустой банка.</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>пустая банка.</t>
+          <t>пустой банка.</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>стакана</t>
+          <t>стакан</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>стакана</t>
+          <t>стакан</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>дросиля</t>
+          <t>дросилить</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>дросиля</t>
+          <t>дросилить</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>замена двух дросселей со2</t>
+          <t>замена два дроссель со2</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>замена дросселя со2</t>
+          <t>замена дроссель со2</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>замена тормозной пластины</t>
+          <t>замена тормозной пластина</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>замена дросселя со2</t>
+          <t>замена дроссель со2</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>замена ддросселя со2</t>
+          <t>замена ддроссель со2</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>верхнего толкателя дроссиля</t>
+          <t>верхний толкатель дроссиля</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>дросиля</t>
+          <t>дросилить</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>дроселя</t>
+          <t>дросель</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>дроселя</t>
+          <t>дросель</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>дроселя</t>
+          <t>дросель</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>верхнего дроселя</t>
+          <t>верхний дросель</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>уплотнение прижимного стакана.</t>
+          <t>уплотнение прижимный стакана.</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>прижимного стакана</t>
+          <t>прижимный стакан</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>прижимного цилиндра</t>
+          <t>прижимный цилиндр</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>наполнителя</t>
+          <t>наполнитель</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>дросселя</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>дросселя нагнетания. клапан</t>
+          <t>дроссель нагнетания. клапан</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>дросселя нагнетания. клапан</t>
+          <t>дроссель нагнетания. клапан</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>недолива</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>недолива</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>недоливы</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>устранение недолива</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>тормозной пластины и дросселя нагнетания</t>
+          <t>тормозной пластина и дроссель нагнетание</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>недолива</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>двух дросселей и пластины</t>
+          <t>два дроссель и пластина</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>двух дросселей и пластины</t>
+          <t>два дроссель и пластина</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>двух дросселей и пластины</t>
+          <t>два дроссель и пластина</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>дросселей и тормоз. пластины</t>
+          <t>дроссель и тормоз. пластина</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>дросселя</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>дросселей и тормозной пластины, наполнитель</t>
+          <t>дроссель и тормозной пластины, наполнитель</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>обоих дросселей</t>
+          <t>оба дроссель</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>прижимного стакана</t>
+          <t>прижимный стакан</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>недоливов наполнитель</t>
+          <t>недолив наполнитель</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>недоливов наполнитель</t>
+          <t>недолив наполнитель</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>колпака</t>
+          <t>колпак</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>обоих дросселей</t>
+          <t>оба дроссель</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>обоих дросселей</t>
+          <t>оба дроссель</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>недоливы</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>недоливы</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -6730,7 +6730,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>сбросного клапана</t>
+          <t>сбросный клапан</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -6886,7 +6886,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>наполнителя</t>
+          <t>наполнитель</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7042,7 +7042,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -7120,7 +7120,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>обоих дросселей</t>
+          <t>оба дроссель</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7237,7 +7237,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>наполнителя</t>
+          <t>наполнитель</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>наполнителя</t>
+          <t>наполнитель</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>обоих дросселей</t>
+          <t>оба дроссель</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>дросиля</t>
+          <t>дросилить</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>недолива</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -7510,7 +7510,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>тормозной пластины и сбросного дросселя</t>
+          <t>тормозной пластина и сбросный дроссель</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>дросселя и тормозной пластины</t>
+          <t>дроссель и тормозной пластина</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>дросселя и тормоз. пластины. наполнитель</t>
+          <t>дроссель и тормоз. пластины. наполнитель</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>тормозной пластины и сбросного дросселя</t>
+          <t>тормозной пластина и сбросный дроссель</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>тормозной пластины и сбросного дросселя</t>
+          <t>тормозной пластина и сбросный дроссель</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -7744,7 +7744,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>тормоз. пластина и дросселей наполнитель</t>
+          <t>тормоз. пластина и дроссель наполнитель</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>тормозн. пластины и дросселей наполнитель</t>
+          <t>тормозн. пластина и дроссель наполнитель</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -7822,7 +7822,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>тормозной пластин. и дросселей наполнитель</t>
+          <t>тормозной пластин. и дроссель наполнитель</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>недолива наполнитель</t>
+          <t>недолив наполнитель</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>тормозной пластины и прижимного стакана</t>
+          <t>тормозной пластина и прижимный стакан</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -7978,7 +7978,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8017,7 +8017,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>наполнителя</t>
+          <t>наполнитель</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>наполнителя</t>
+          <t>наполнитель</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8212,7 +8212,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -8290,7 +8290,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -8485,7 +8485,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -8563,7 +8563,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>пластины</t>
+          <t>пластина</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>тормозно пластины</t>
+          <t>тормозный пластина</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>тормозной пластины и дроссиля</t>
+          <t>тормозной пластина и дроссиля</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -8992,7 +8992,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -9070,7 +9070,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -9109,7 +9109,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -9187,7 +9187,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>дросслей</t>
+          <t>дросслить</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>дроселя</t>
+          <t>дросель</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>тормоз. пластины и дросселя</t>
+          <t>тормоз. пластина и дроссель</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>недоливов.замена дросседей нагрузки</t>
+          <t>недоливов.замен дросседеть нагрузка</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -9382,7 +9382,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>тор. пластины и дросселя нагрузки</t>
+          <t>тор. пластина и дроссель нагрузка</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>тормозной пластины и дроселя нагрузки</t>
+          <t>тормозной пластина и дросель нагрузка</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -9499,7 +9499,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>дроселей нагрузки</t>
+          <t>дросель нагрузка</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -9538,7 +9538,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>верхнего дросселя. наполнитель</t>
+          <t>верхний дросселя. наполнитель</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -9733,7 +9733,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>недолива</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>недолива</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -9811,7 +9811,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>тор. пластины</t>
+          <t>тор. пластина</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -9850,7 +9850,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>дросселя</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -9889,7 +9889,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
